--- a/pred_ohlcv/54_21/2020-01-22 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>399909.1759073701</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>376307.3102073701</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>332457.3102073701</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>338911.7245073701</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>334741.7245073701</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>212863.2779073701</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>266576.4571073701</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>256620.5202073701</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>253180.5846073701</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>241630.5846073701</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>299481.9523073701</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>313528.6752073701</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>319866.6825073701</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>332609.8721684301</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>325922.17726843</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>325922.17726843</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>95516.09546842983</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>79340.17056842984</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>16432.15336842983</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>17775.57356842983</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-476406.8878315701</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-385206.5116315701</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-409134.68513157</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-395525.4529066301</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-280127.4724066301</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-230213.9942066301</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-231830.6643066301</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-196013.9033066301</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-253205.2424066301</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-241530.1713066301</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-245673.2110066301</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-245643.9179066301</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-239311.5416066301</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-230419.9556066301</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-230419.9556066301</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-288648.3563066301</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-231272.7884066301</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-469217.1383066301</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-494573.6584066301</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-494563.6584066301</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-495135.0613066301</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-482732.9071066301</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-347824.3088066301</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>256406.1836933699</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>255104.4994933699</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>348277.12190191</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>317753.67730191</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>272507.01430191</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>280021.03640191</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>279981.03640191</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>324200.20150191</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>399557.74439337</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>400374.68619337</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>396413.39318483</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>405368.0775762899</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>390800.5882762899</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>383198.0487762899</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>432064.4426979699</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>420383.2974979699</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>442744.5376979699</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>893337.8290970498</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1001380.32249705</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1115376.84959705</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1131451.84969705</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1060689.72179705</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1068022.87369705</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1107439.89539705</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1261025.30139705</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1269441.01039705</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1449699.09531187</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>902244.7421604607</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>1575908.28894354</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>1662643.20802519</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>1626434.23322519</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>1771919.99902519</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>1725382.12452519</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>1791757.44150257</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1773395.96610257</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>1777755.75000257</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>1921960.39720257</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>1961300.19477914</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2019155.71120257</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2030724.22850257</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>1744620.97730257</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1746648.12960257</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1921185.12260257</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1879361.07840257</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1854271.62670257</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1849446.83464982</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1403772.56854982</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1415794.32494982</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1397143.80834982</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1444739.17777575</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>1444793.55807575</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>399909.1759073701</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>376307.3102073701</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>332457.3102073701</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>340877.1790073701</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>338911.7245073701</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>334741.7245073701</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>217528.1660073701</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>209528.1660073701</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>212863.2779073701</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>266576.4571073701</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>253180.5846073701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>241630.5846073701</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>299481.9523073701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>313528.6752073701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>319866.6825073701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>308760.46620737</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>332589.67830737</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>332609.8721684301</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>318610.8301684301</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>323540.9185684301</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>325922.17726843</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>73338.71596842984</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>95516.09546842983</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>79340.17056842984</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>58643.92106842983</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>16432.15336842983</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>17775.57356842983</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-476406.8878315701</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-385206.5116315701</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-409134.68513157</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-467526.12681919</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-488538.1246191901</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-463430.4933066301</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-463846.8933066301</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-338811.5860066301</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-395525.4529066301</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-452647.4788066301</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-452657.4809066301</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-280127.4724066301</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-279564.0419066301</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-256694.4501066301</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-246624.4022066301</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-246614.4460066301</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-246614.4460066301</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-251750.3482066301</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-230213.9942066301</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-231830.6643066301</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-196013.9033066301</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-252893.6837066301</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-252454.6726066301</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-241530.1713066301</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-347824.3088066301</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>256406.1836933699</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>255104.4994933699</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>348277.12190191</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>317753.67730191</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>272507.01430191</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>280021.03640191</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>279981.03640191</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>324200.20150191</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>399557.74439337</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>400374.68619337</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>396413.39318483</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>397383.6047848299</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>405368.0775762899</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>390788.5882762899</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>390800.5882762899</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>383198.0487762899</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>432064.4426979699</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>420383.2974979699</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>442744.5376979699</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>677499.8810979698</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>853236.4253195998</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>904695.5848195998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>893337.8290970498</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1001380.32249705</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1115376.84959705</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1131451.84969705</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1060689.72179705</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1068022.87369705</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1107439.89539705</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1234827.01385276</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1261025.30139705</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1269441.01039705</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1449699.09531187</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2023376.6439623</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2031302.4287623</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>902244.7421604607</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>1626434.23322519</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>1771919.99902519</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>1725382.12452519</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>1791757.44150257</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1773395.96610257</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>1777755.75000257</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>1921960.39720257</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>1961300.19477914</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2019155.71120257</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2034053.47060257</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2030724.22850257</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>1744620.97730257</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1746648.12960257</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1921185.12260257</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1879361.07840257</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1854271.62670257</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1849446.83464982</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
